--- a/data/trans_orig/P14B14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B14-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2AE5FD3-6A51-460B-B8F3-E7D1B73FD921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CDC98FB-676F-4A22-B2A9-27A183B07E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C3FA14F-BFFB-4695-B86E-2DADF32C4595}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E899506B-72FD-45A1-B1BF-C667E3226558}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -85,19 +85,19 @@
     <t>94,14%</t>
   </si>
   <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,19 +109,19 @@
     <t>5,86%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,19 +136,19 @@
     <t>88,31%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>22,99%</t>
@@ -157,19 +157,19 @@
     <t>11,69%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -187,55 +187,55 @@
     <t>58,71%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>41,29%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -253,19 +253,19 @@
     <t>87,42%</t>
   </si>
   <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>85,75%</t>
   </si>
   <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -274,67 +274,67 @@
     <t>12,58%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
   </si>
   <si>
     <t>78,83%</t>
   </si>
   <si>
-    <t>38,84%</t>
+    <t>38,66%</t>
   </si>
   <si>
     <t>80,25%</t>
   </si>
   <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>61,16%</t>
+    <t>61,34%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -343,13 +343,13 @@
     <t>85,73%</t>
   </si>
   <si>
-    <t>45,79%</t>
+    <t>45,78%</t>
   </si>
   <si>
     <t>89,05%</t>
   </si>
   <si>
-    <t>49,4%</t>
+    <t>56,1%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -358,160 +358,160 @@
     <t>14,27%</t>
   </si>
   <si>
-    <t>54,21%</t>
+    <t>54,22%</t>
   </si>
   <si>
     <t>10,95%</t>
   </si>
   <si>
-    <t>50,6%</t>
+    <t>43,9%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>75,45%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>Población cuya fibromialgia le limita en 2023 (Tasa respuesta: 3,11%)</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
   </si>
   <si>
     <t>88,33%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>Población cuya fibromialgia le limita en 2023 (Tasa respuesta: 3,11%)</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>24,73%</t>
   </si>
   <si>
     <t>74,43%</t>
@@ -520,19 +520,19 @@
     <t>72,65%</t>
   </si>
   <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>72,89%</t>
   </si>
   <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>25,57%</t>
@@ -541,67 +541,67 @@
     <t>27,35%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
   </si>
   <si>
     <t>27,11%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>69,2%</t>
+    <t>73,99%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>30,8%</t>
+    <t>26,01%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94C37C0-763E-425C-BEAB-254E40225A70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A86EA73-4CE3-4CEE-97B5-AFACCFB3A005}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1758,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57ADBB61-E79F-46AF-AC17-737A30C74770}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D7978D-A375-4654-A58F-0769F488D6C7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2509,7 +2509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7DC68B-730C-4827-8DB0-09B4626650DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5E3146-8FF8-410A-8E37-D073D7FA1164}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B14-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B14-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CDC98FB-676F-4A22-B2A9-27A183B07E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF6C476B-1A67-450F-BD71-FA79045D0C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E899506B-72FD-45A1-B1BF-C667E3226558}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EB41021B-5868-4FFF-A23C-7FB7CBA56067}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -85,19 +85,19 @@
     <t>94,14%</t>
   </si>
   <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,19 +109,19 @@
     <t>5,86%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,19 +136,19 @@
     <t>88,31%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>22,99%</t>
@@ -157,19 +157,19 @@
     <t>11,69%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -181,13 +181,19 @@
     <t>81,96%</t>
   </si>
   <si>
+    <t>24,36%</t>
+  </si>
+  <si>
     <t>18,04%</t>
   </si>
   <si>
+    <t>75,64%</t>
+  </si>
+  <si>
     <t>58,71%</t>
   </si>
   <si>
-    <t>15,14%</t>
+    <t>14,91%</t>
   </si>
   <si>
     <t>87,18%</t>
@@ -196,19 +202,19 @@
     <t>91,13%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>41,29%</t>
@@ -217,31 +223,31 @@
     <t>12,82%</t>
   </si>
   <si>
-    <t>84,86%</t>
+    <t>85,09%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya fibromialgia le limita en 2015 (Tasa respuesta: 1,95%)</t>
+    <t>Población cuya fibromialgia le limita en 2016 (Tasa respuesta: 1,95%)</t>
   </si>
   <si>
     <t>0%</t>
@@ -253,19 +259,19 @@
     <t>87,42%</t>
   </si>
   <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>85,75%</t>
   </si>
   <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -274,67 +280,61 @@
     <t>12,58%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
   </si>
   <si>
     <t>80,25%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -343,13 +343,13 @@
     <t>85,73%</t>
   </si>
   <si>
-    <t>45,78%</t>
+    <t>45,67%</t>
   </si>
   <si>
     <t>89,05%</t>
   </si>
   <si>
-    <t>56,1%</t>
+    <t>52,91%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -358,67 +358,67 @@
     <t>14,27%</t>
   </si>
   <si>
-    <t>54,22%</t>
+    <t>54,33%</t>
   </si>
   <si>
     <t>10,95%</t>
   </si>
   <si>
-    <t>43,9%</t>
+    <t>47,09%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
   </si>
   <si>
     <t>Población cuya fibromialgia le limita en 2023 (Tasa respuesta: 3,11%)</t>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A86EA73-4CE3-4CEE-97B5-AFACCFB3A005}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBED0434-4EBC-41D7-8F15-20BD638DF789}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1463,7 +1463,7 @@
         <v>46</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1478,7 +1478,7 @@
         <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1509,13 +1509,13 @@
         <v>1011</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1524,13 +1524,13 @@
         <v>1011</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,13 +1596,13 @@
         <v>4335</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -1611,13 +1611,13 @@
         <v>83575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -1626,13 +1626,13 @@
         <v>87910</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1647,13 @@
         <v>3049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -1662,13 +1662,13 @@
         <v>8139</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -1677,13 +1677,13 @@
         <v>11188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,7 +1739,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1758,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D7978D-A375-4654-A58F-0769F488D6C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D5C167-F468-4673-AFA3-46052F4B9B44}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1775,7 +1775,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1885,10 +1885,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -1897,13 +1897,13 @@
         <v>44438</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -1912,13 +1912,13 @@
         <v>44438</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,7 +1936,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>28</v>
@@ -1948,13 +1948,13 @@
         <v>6395</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -1963,13 +1963,13 @@
         <v>7384</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,10 +2037,10 @@
         <v>8237</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2052,13 +2052,13 @@
         <v>52663</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -2067,13 +2067,13 @@
         <v>60901</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,7 +2088,7 @@
         <v>2213</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -2246,7 +2246,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>104</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2509,7 +2509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5E3146-8FF8-410A-8E37-D073D7FA1164}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BCAEE5-0ED2-4AEB-A412-4147E8898976}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2687,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>135</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
